--- a/statistics/HistoricalDistanceData/historical_distance/Q60519480-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q60519480-en.xlsx
@@ -31,130 +31,130 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Elizabeth Warren Formally Announces 2020 Presidential Bid in Lawrence, Mass.</t>
+  </si>
+  <si>
+    <t>Presidential Ratings</t>
+  </si>
+  <si>
     <t>Donald Trump’s Biggest Fear: A Romney 2020 Primary Challenge</t>
   </si>
   <si>
+    <t>Elizabeth Warren Announces Iowa Trip as She Starts Running for President in 2020</t>
+  </si>
+  <si>
+    <t>Find Your Local League</t>
+  </si>
+  <si>
+    <t>2020 President - Sabato's Crystal Ball</t>
+  </si>
+  <si>
     <t>Libertarians offer voters nothing new</t>
   </si>
   <si>
-    <t>Elizabeth Warren Formally Announces 2020 Presidential Bid in Lawrence, Mass.</t>
-  </si>
-  <si>
     <t>Seabrook's Abramson seeks Libertarian presidential nomination</t>
   </si>
   <si>
+    <t>Massachusetts: Election Tools, Deadlines, Dates, Rules, and Links</t>
+  </si>
+  <si>
     <t>Could Mitt Romney Be President Trump's Worst Nightmare?</t>
   </si>
   <si>
-    <t>Massachusetts: Election Tools, Deadlines, Dates, Rules, and Links</t>
+    <t>Biden dominates the electoral map, but here's how the race could tighten</t>
+  </si>
+  <si>
+    <t>In deep blue Massachusetts, Governor Baker gets high marks for coronavirus response</t>
+  </si>
+  <si>
+    <t>Massachusetts Election Results 2020</t>
   </si>
   <si>
     <t>2020 Election Forecast</t>
   </si>
   <si>
-    <t>Find Your Local League</t>
-  </si>
-  <si>
-    <t>Presidential Ratings</t>
-  </si>
-  <si>
-    <t>2020 President - Sabato's Crystal Ball</t>
-  </si>
-  <si>
-    <t>Massachusetts Election Results 2020</t>
-  </si>
-  <si>
     <t>2020 Electoral Interactive Map</t>
   </si>
   <si>
-    <t>In deep blue Massachusetts, Governor Baker gets high marks for coronavirus response</t>
-  </si>
-  <si>
-    <t>Elizabeth Warren Announces Iowa Trip as She Starts Running for President in 2020</t>
-  </si>
-  <si>
-    <t>Biden dominates the electoral map, but here's how the race could tighten</t>
+    <t>2019-02-09T14:00:04UTC</t>
+  </si>
+  <si>
+    <t>1-01-01T00:00:00UTC</t>
   </si>
   <si>
     <t>2018-01-02T16:25:31UTC</t>
   </si>
   <si>
+    <t>2018-12-31T13:30:06UTC</t>
+  </si>
+  <si>
     <t>2019-11-12T14:11:00UTC</t>
   </si>
   <si>
-    <t>2019-02-09T14:00:04UTC</t>
-  </si>
-  <si>
     <t>2019-07-28T08:01:00UTC</t>
   </si>
   <si>
     <t>2018-01-02T15:52:04UTC</t>
   </si>
   <si>
-    <t>1-01-01T00:00:00UTC</t>
+    <t>2020-08-06T13:13:00UTC</t>
+  </si>
+  <si>
+    <t>2020-07-28T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>316-02-08T00:00:00UTC</t>
   </si>
   <si>
     <t>2020-08-12T06:30:00UTC</t>
   </si>
   <si>
-    <t>316-02-08T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2020-07-28T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2018-12-31T13:30:06UTC</t>
-  </si>
-  <si>
-    <t>2020-08-06T13:13:00UTC</t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
+    <t>https://www.nytimes.com/2019/02/09/us/politics/elizabeth-warren-2020.html</t>
+  </si>
+  <si>
+    <t>https://insideelections.com/ratings/president</t>
+  </si>
+  <si>
     <t>http://nationalinterest.org/feature/donald-trumps-biggest-fear-romney-2020-primary-challenge-23895</t>
   </si>
   <si>
+    <t>https://www.nytimes.com/2018/12/31/us/politics/elizabeth-warren-2020-president-announcement.html</t>
+  </si>
+  <si>
+    <t>https://www.lwv.org/local-leagues/find-local-league</t>
+  </si>
+  <si>
+    <t>http://centerforpolitics.org/crystalball/2020-president/</t>
+  </si>
+  <si>
     <t>http://www.oleantimesherald.com/commentary/libertarians-offer-voters-nothing-new/article_33b4aec0-0580-11ea-bac9-e38dbc36e6df.html</t>
   </si>
   <si>
-    <t>https://www.nytimes.com/2019/02/09/us/politics/elizabeth-warren-2020.html</t>
-  </si>
-  <si>
     <t>https://www.seacoastonline.com/news/20190728/seabrooks-abramson-seeks-libertarian-presidential-nomination</t>
   </si>
   <si>
+    <t>https://www.vote.org/state/massachusetts/</t>
+  </si>
+  <si>
     <t>http://boston.cbslocal.com/2018/01/02/mitt-romney-donald-trump-senate-utah/</t>
   </si>
   <si>
-    <t>https://www.vote.org/state/massachusetts/</t>
+    <t>https://www.nbcnews.com/politics/meet-the-press/biden-dominates-electoral-map-here-s-how-race-could-tighten-n1236001</t>
+  </si>
+  <si>
+    <t>https://www.massincpolling.com/the-topline/edxk6ycbjxssb1vp0rkcmtnpy5leau</t>
+  </si>
+  <si>
+    <t>https://www.politico.com/2020-election/results/massachusetts/</t>
   </si>
   <si>
     <t>https://projects.fivethirtyeight.com/2020-election-forecast/</t>
   </si>
   <si>
-    <t>https://www.lwv.org/local-leagues/find-local-league</t>
-  </si>
-  <si>
-    <t>https://insideelections.com/ratings/president</t>
-  </si>
-  <si>
-    <t>http://centerforpolitics.org/crystalball/2020-president/</t>
-  </si>
-  <si>
-    <t>https://www.politico.com/2020-election/results/massachusetts/</t>
-  </si>
-  <si>
     <t>https://abcnews.go.com/Politics/2020-Electoral-Interactive-Map?basemap=71662160&amp;promoref=brandpromo</t>
-  </si>
-  <si>
-    <t>https://www.massincpolling.com/the-topline/edxk6ycbjxssb1vp0rkcmtnpy5leau</t>
-  </si>
-  <si>
-    <t>https://www.nytimes.com/2018/12/31/us/politics/elizabeth-warren-2020-president-announcement.html</t>
-  </si>
-  <si>
-    <t>https://www.nbcnews.com/politics/meet-the-press/biden-dominates-electoral-map-here-s-how-race-could-tighten-n1236001</t>
   </si>
 </sst>
 </file>
@@ -621,7 +621,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -638,7 +638,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
@@ -655,7 +655,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
         <v>31</v>
@@ -689,7 +689,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>31</v>
@@ -706,7 +706,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
         <v>31</v>
@@ -740,7 +740,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
         <v>31</v>
@@ -757,7 +757,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
         <v>31</v>
@@ -774,7 +774,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
         <v>31</v>
@@ -791,7 +791,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
